--- a/data/trans_camb/P0901-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.383265242240908</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.304823917498887</v>
+        <v>-2.304823917498884</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.736172540526887</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.787906531918063</v>
+        <v>-2.55674587119124</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.330520299842917</v>
+        <v>-3.88045165911967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.699494032941258</v>
+        <v>-7.351916711678403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.06576643000146312</v>
+        <v>0.7110850950596649</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.10589569273364</v>
+        <v>-1.294467575022362</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.59747328491768</v>
+        <v>-12.02625643684598</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3996384713876073</v>
+        <v>0.561067134759729</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8643439242958428</v>
+        <v>-0.7452791723068741</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.992538029551109</v>
+        <v>-8.416407654804514</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.584611524729539</v>
+        <v>8.408349029089839</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.581429227689932</v>
+        <v>7.213479059429161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.255746685724572</v>
+        <v>2.234405793132113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.78064821956364</v>
+        <v>16.03323023806533</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.5542870383265</v>
+        <v>12.85204622197242</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.6421614312288529</v>
+        <v>-0.4889752341610381</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.96090934824875</v>
+        <v>10.13531478727261</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.616586386725746</v>
+        <v>8.758334910118654</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.6124412650411536</v>
+        <v>-0.9310242343590421</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1252266217217797</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2086550749907999</v>
+        <v>-0.2086550749907996</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.389009026113184</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1942648693596001</v>
+        <v>-0.19095850752365</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3122180172870549</v>
+        <v>-0.2990708306181729</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5360560642426165</v>
+        <v>-0.5300189360738705</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.006650468897136653</v>
+        <v>0.02544134499783944</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.006933948730161078</v>
+        <v>-0.0515507127822138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5225108051129287</v>
+        <v>-0.5090593425154083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02419385470158296</v>
+        <v>0.02807565937867235</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05059435835810352</v>
+        <v>-0.04318901714076117</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4444535718491131</v>
+        <v>-0.4699781206877801</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.168253615453533</v>
+        <v>1.056903552009903</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7771419691714671</v>
+        <v>0.8958914325010887</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2909682496298626</v>
+        <v>0.2756858689728581</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.009791187305416</v>
+        <v>1.000023827123313</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8149079070421973</v>
+        <v>0.8059303633600871</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03887994895744922</v>
+        <v>-0.0349121356582483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7651049727698567</v>
+        <v>0.7496295633061889</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6575276879261479</v>
+        <v>0.6479368441337919</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.04554325492301074</v>
+        <v>-0.06434151190706905</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.012551336233668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.622358020303688</v>
+        <v>8.622358020303684</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9406876616495946</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.479043058384738</v>
+        <v>-2.516773150110175</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.915921883963525</v>
+        <v>-4.635869239356878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.978570753039649</v>
+        <v>4.125236037373417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.496005084872924</v>
+        <v>-4.172073506371074</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.193460664733778</v>
+        <v>-6.688151592549151</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.565677678007286</v>
+        <v>0.9262380502494111</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.045312965041784</v>
+        <v>-2.113387816525222</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.177670085887353</v>
+        <v>-4.217123080951736</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.206302996489246</v>
+        <v>4.192331085240877</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.677524997714708</v>
+        <v>5.970463339543341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.672487822726577</v>
+        <v>3.052011911278089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.20808687132347</v>
+        <v>13.62219970229014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.040927306050826</v>
+        <v>5.918243549219344</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.374233884578979</v>
+        <v>3.099810705011853</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.57692167912972</v>
+        <v>10.25559758485665</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.425693879464442</v>
+        <v>4.516334411887528</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.629811495741755</v>
+        <v>1.673988248220999</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.65893040287042</v>
+        <v>10.70219308416897</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1064821744292194</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.9067465498828581</v>
+        <v>0.9067465498828577</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05215757868639485</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2280834117142257</v>
+        <v>-0.2372831446254172</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4088249173651758</v>
+        <v>-0.3997242075380154</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3427716358813149</v>
+        <v>0.3183865230909533</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1734496525215879</v>
+        <v>-0.205804215488376</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3022982999190952</v>
+        <v>-0.333758504759151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07973610926370983</v>
+        <v>0.04469828983080414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1364970382567557</v>
+        <v>-0.140355078055815</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2732588172713151</v>
+        <v>-0.268746023170729</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2746784327980908</v>
+        <v>0.2784399168620855</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7661172003165085</v>
+        <v>0.7915466798084162</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3533404130546283</v>
+        <v>0.473319554809621</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.751042420261571</v>
+        <v>1.801467693532825</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3851786973258221</v>
+        <v>0.3820421336557662</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2058955545905216</v>
+        <v>0.1980981918634373</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.715332433687857</v>
+        <v>0.6454841465794916</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3589578354645138</v>
+        <v>0.3647724327682836</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1325611285821771</v>
+        <v>0.1337038992430711</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8686700780956083</v>
+        <v>0.8990606885005625</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.516136235610257</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.787246572972262</v>
+        <v>4.787246572972268</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.034396017163796</v>
@@ -1092,7 +1092,7 @@
         <v>0.4418111620754367</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.433577897538131</v>
+        <v>6.433577897538134</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.423600611074501</v>
+        <v>1.503270989002372</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.82810519867294</v>
+        <v>-1.301795104939181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.771727552350178</v>
+        <v>3.516121680650917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5475204901609465</v>
+        <v>-0.04850002548574566</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.092970967125542</v>
+        <v>-6.723178047925677</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.07877946921378273</v>
+        <v>0.06117404053784841</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.294017008322435</v>
+        <v>2.368728492685751</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.847460269772508</v>
+        <v>-3.013033113295157</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.03682151086066</v>
+        <v>3.277683263986569</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.73713057505108</v>
+        <v>11.053392189829</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.228803785562037</v>
+        <v>6.13817922941937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.58815950756877</v>
+        <v>12.38204817218556</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.22119419051991</v>
+        <v>11.63634470305249</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.955233458088599</v>
+        <v>4.04409277980047</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.512777774044762</v>
+        <v>9.77977335068166</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.496207586047447</v>
+        <v>9.525447911439763</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.966828075584091</v>
+        <v>3.628080331613769</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.374274602903485</v>
+        <v>9.530539290180419</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1103448206234283</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3484171487809087</v>
+        <v>0.3484171487809091</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6013560923003365</v>
@@ -1197,7 +1197,7 @@
         <v>0.04402857107897092</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6411364539166819</v>
+        <v>0.6411364539166823</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1455960549768937</v>
+        <v>0.1701039765551436</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2470258377084544</v>
+        <v>-0.1626702226166111</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3497317860161001</v>
+        <v>0.3767432351130452</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03234754745223809</v>
+        <v>-0.01709533677864372</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4299178274212226</v>
+        <v>-0.4214450601265033</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.004451107246799984</v>
+        <v>-3.040522882077214e-05</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1959759107260232</v>
+        <v>0.1921466546431089</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2412121778863698</v>
+        <v>-0.2504430486437767</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2524070678778481</v>
+        <v>0.2722614243777219</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.393619588501489</v>
+        <v>2.481803817874176</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.391297164739662</v>
+        <v>1.491121435577428</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.899885361258278</v>
+        <v>3.044022884702151</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.096133271315275</v>
+        <v>1.008090887856496</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3489388113555665</v>
+        <v>0.3718548637912746</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8881053077539457</v>
+        <v>0.8957784938757022</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.11440293464851</v>
+        <v>1.142549841559568</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4731302045456464</v>
+        <v>0.4350657339536679</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.117592525786409</v>
+        <v>1.156672607543614</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>16.25156935740423</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.876402306057537</v>
+        <v>8.876402306057543</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>13.78592130774831</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.230616197500223</v>
+        <v>6.293002184388152</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.060561486220935</v>
+        <v>7.3144018226386</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.791716491167126</v>
+        <v>9.054623533244479</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.781841047444084</v>
+        <v>10.61999591511761</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.27773231116069</v>
+        <v>10.55952575578575</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.39991788493629</v>
+        <v>3.750239837244236</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.08966520957709</v>
+        <v>9.702822837655635</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>10.34130603342607</v>
+        <v>10.18167391346765</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.573178175152845</v>
+        <v>7.638401387699329</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.17277787046598</v>
+        <v>15.10512707464809</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.94635002635429</v>
+        <v>16.82722459689063</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.28188445279866</v>
+        <v>19.31663095413792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22.57989779510992</v>
+        <v>23.43752732831608</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>22.19604698419322</v>
+        <v>22.49486188293945</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.91106935965364</v>
+        <v>14.42707910925676</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.89977385870594</v>
+        <v>17.7480312708013</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.05325994642767</v>
+        <v>18.00444436753935</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.26533090023779</v>
+        <v>15.15798781677658</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>2.313266103640499</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>2.667318542851336</v>
+        <v>2.667318542851337</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.023526679077961</v>
@@ -1402,7 +1402,7 @@
         <v>0.9999493039706049</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5461597038726244</v>
+        <v>0.5461597038726247</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.277534176497602</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.847846079077874</v>
+        <v>0.8234604767633733</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.9292495898368903</v>
+        <v>0.9328412359592009</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.191579234983246</v>
+        <v>1.28339481262618</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5202257572486307</v>
+        <v>0.5601953417881037</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5063696658083543</v>
+        <v>0.5618155875241806</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1743013980585676</v>
+        <v>0.1831877688034557</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7899734597571861</v>
+        <v>0.7640298895588845</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.768462162327028</v>
+        <v>0.8194004639015411</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6075979005651617</v>
+        <v>0.6164765270455119</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.176078327060607</v>
+        <v>4.5518082484194</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4.812666793015559</v>
+        <v>4.956651265076903</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5.536857054194979</v>
+        <v>5.792824851279507</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.772522990742543</v>
+        <v>1.694725017687932</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.621076588193085</v>
+        <v>1.652217169353279</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.030612634892655</v>
+        <v>1.064493300779401</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.977826371960769</v>
+        <v>1.970322853611117</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.930693749210769</v>
+        <v>1.954135020008269</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.656202067463041</v>
+        <v>1.680031078401565</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.185051017158309</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.3046534166471673</v>
+        <v>0.3046534166471659</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.949618400371943</v>
@@ -1520,7 +1520,7 @@
         <v>0.930690462850417</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.1303575998513953</v>
+        <v>-0.1303575998513939</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6665093018847459</v>
+        <v>-0.1901560757125859</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.773011895863941</v>
+        <v>-4.428981152637324</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.2431349025707</v>
+        <v>-5.550078232151639</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.104103836778314</v>
+        <v>5.293718130868294</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.532634679385866</v>
+        <v>-5.318484172731169</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.751634512859446</v>
+        <v>-6.038430548207923</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.224914913103698</v>
+        <v>4.13202445805103</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.772349224437757</v>
+        <v>-2.954881683358547</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.895860094055521</v>
+        <v>-3.701243553957379</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.73304570951809</v>
+        <v>11.13829344851459</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.739228085628074</v>
+        <v>6.04106045665424</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.508622963072916</v>
+        <v>3.289737230938545</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20.76709347481824</v>
+        <v>20.86673501929582</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.18003477329988</v>
+        <v>7.476532273119762</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.567717432104458</v>
+        <v>5.384167426475162</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.82745097541559</v>
+        <v>13.96404868639356</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.654631457476725</v>
+        <v>5.294174131918634</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.405414632234975</v>
+        <v>3.017449048505921</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.09740863193781783</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02504185229252306</v>
+        <v>0.02504185229252295</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.9041133909188234</v>
@@ -1625,7 +1625,7 @@
         <v>0.09402073614988203</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.01316905887616236</v>
+        <v>-0.01316905887616222</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1286645155116664</v>
+        <v>-0.05849682840522688</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4794272365904274</v>
+        <v>-0.4750990544785113</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5189619317192992</v>
+        <v>-0.5347063131161757</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2987083103787936</v>
+        <v>0.2996998524689418</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3708052948112672</v>
+        <v>-0.3547142789536469</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.341270425578374</v>
+        <v>-0.374571915522144</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3102498120128186</v>
+        <v>0.3278665267324386</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3017488697967629</v>
+        <v>-0.2531995926163546</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3125741479550572</v>
+        <v>-0.3023705685543022</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.198594952655983</v>
+        <v>2.176034848984599</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.050220636227553</v>
+        <v>1.237915791199295</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6907698488010784</v>
+        <v>0.750800554656233</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.357386766310096</v>
+        <v>2.431123479869934</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9609556662512979</v>
+        <v>0.8359619866131885</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6522425055575559</v>
+        <v>0.6657506542860939</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.770172051596181</v>
+        <v>1.75256476255853</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6019321122639179</v>
+        <v>0.6467205259326604</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4556895946788021</v>
+        <v>0.4022682974691454</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>7.254556027564202</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.2974127666293624</v>
+        <v>-0.297412766629368</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.000360882029928</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.246101989421484</v>
+        <v>-1.326952390172352</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.5724606706116974</v>
+        <v>1.077786926604859</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.624338505624219</v>
+        <v>-2.70408668515791</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.496988128027816</v>
+        <v>-5.6798160043524</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.4846255043073519</v>
+        <v>0.1109506824928934</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.679736509016251</v>
+        <v>-6.227379424453414</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.113398231120857</v>
+        <v>-2.60681728847047</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.181510700165641</v>
+        <v>2.426402029870854</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.796454058028593</v>
+        <v>-3.005046859452282</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.209659455525108</v>
+        <v>9.688461445194426</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.19624910815616</v>
+        <v>12.3235065015574</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.09601882235672</v>
+        <v>6.99280157616968</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.692079912564002</v>
+        <v>6.438463696003072</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>14.30840015620195</v>
+        <v>14.18237708756882</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.006616722361248</v>
+        <v>4.813120543819801</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.290456465472598</v>
+        <v>5.890851668911473</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.67655184770283</v>
+        <v>11.37395109028472</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.451655422505255</v>
+        <v>4.291100688141052</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.4245819974225379</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.01740645547910345</v>
+        <v>-0.01740645547910377</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1477766489028519</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1090842175679114</v>
+        <v>-0.1271416090850618</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.009831418480398839</v>
+        <v>0.0666646484255564</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1953904221891986</v>
+        <v>-0.2216376888757476</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3161089608723049</v>
+        <v>-0.2923826688224725</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.02377046247789886</v>
+        <v>-0.002797796219963749</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2769637376666546</v>
+        <v>-0.2956520848037695</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1351735068177683</v>
+        <v>-0.1704349732040263</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1456211846751106</v>
+        <v>0.1457852172694627</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1812753986143987</v>
+        <v>-0.1825918628432207</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.27505423064347</v>
+        <v>1.295712032435582</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.542714589485292</v>
+        <v>1.692406395592926</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9943805412723793</v>
+        <v>1.012563514411445</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4709288176219291</v>
+        <v>0.4900498039628141</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.04167108898934</v>
+        <v>0.9902347645268728</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3778303219380508</v>
+        <v>0.3727061077305159</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5610665549851138</v>
+        <v>0.5170452488738068</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.055853924733293</v>
+        <v>0.9619152547916447</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3950719275994089</v>
+        <v>0.3849893857647852</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.351294261818763</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.872010395317663</v>
+        <v>4.872010395317656</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.984640602548712</v>
@@ -1948,7 +1948,7 @@
         <v>4.240293559202808</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>7.900772848570443</v>
+        <v>7.900772848570446</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.738066856373592</v>
+        <v>-3.35463386701918</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.115258365982154</v>
+        <v>-2.124642982521771</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.36618601407535</v>
+        <v>1.102720840589499</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.893071969631858</v>
+        <v>-1.909319283301975</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.499445036385203</v>
+        <v>2.375335219543691</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.683313633114615</v>
+        <v>6.914661491247011</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.661125077364059</v>
+        <v>-1.830398966650634</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.448616616489287</v>
+        <v>1.76375885968501</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.150832531638229</v>
+        <v>5.365389764297499</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.17222570347723</v>
+        <v>3.109820571150053</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.819046971570424</v>
+        <v>4.946811010462485</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.377171515749541</v>
+        <v>8.492850153216844</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.913377139527835</v>
+        <v>5.772440800474941</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>11.11560760393121</v>
+        <v>10.6735707130855</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.24795772449168</v>
+        <v>14.45890558393009</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.584639642299142</v>
+        <v>3.439624792493023</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.932719719475572</v>
+        <v>7.008725379489087</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>10.5524390241336</v>
+        <v>10.61997089429399</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.1409788939075044</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.5082909445003391</v>
+        <v>0.5082909445003385</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1420735800444352</v>
@@ -2044,7 +2044,7 @@
         <v>0.4977465890507362</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7621287787409511</v>
+        <v>0.7621287787409513</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.07515240158472569</v>
@@ -2053,7 +2053,7 @@
         <v>0.3588099926904885</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6685566007316103</v>
+        <v>0.6685566007316106</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3282000476319105</v>
+        <v>-0.3034241290722868</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2077319127967727</v>
+        <v>-0.1899163890707548</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1121517549730662</v>
+        <v>0.09396821964826563</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1143753391211362</v>
+        <v>-0.1230582420879343</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1541433300282803</v>
+        <v>0.1509077051558845</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3977156911728478</v>
+        <v>0.4107590270245744</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1282744008474186</v>
+        <v>-0.1403912119181839</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1044477612906453</v>
+        <v>0.1331926661710393</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3861118552427893</v>
+        <v>0.4061709530657144</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4080296402417606</v>
+        <v>0.3932140638379292</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5689239213347712</v>
+        <v>0.6134734568952488</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.020756735984569</v>
+        <v>1.084827974966213</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5025594633746157</v>
+        <v>0.4746157506280949</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.9218948886375745</v>
+        <v>0.8643909001959226</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.200062406494431</v>
+        <v>1.169867210833693</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3482592023761749</v>
+        <v>0.3267129118177373</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6618992837137967</v>
+        <v>0.657397209209587</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.001847514977911</v>
+        <v>0.9974463785307148</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.461782435563805</v>
+        <v>-2.238022631694363</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.746129055832593</v>
+        <v>-6.577660250607886</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.333184989959628</v>
+        <v>-2.288099401757168</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.284586365313015</v>
+        <v>-2.933990672884675</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.205680766464839</v>
+        <v>-6.94587464111453</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.884730399754253</v>
+        <v>-1.921628953741926</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.835734886454192</v>
+        <v>-2.092967951068931</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-6.15453472215638</v>
+        <v>-6.288544327277103</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.37163830255225</v>
+        <v>-1.079179154861772</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.059089371239024</v>
+        <v>4.193326868164464</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.8540294196883945</v>
+        <v>-0.9190185665987098</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.772437312739601</v>
+        <v>3.907850459796673</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.536362926678079</v>
+        <v>4.848199128659261</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.4369283491429889</v>
+        <v>0.1514899721757509</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.31217411304053</v>
+        <v>5.2167501450185</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.407879258880745</v>
+        <v>3.427335459857541</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.333354785309766</v>
+        <v>-1.347866846597604</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.555115307072808</v>
+        <v>3.598745478052191</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2092379848370009</v>
+        <v>-0.1904810854365482</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5508941306244515</v>
+        <v>-0.5417196870850787</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1954996768805897</v>
+        <v>-0.1908574263864834</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1621192146575783</v>
+        <v>-0.1468635677471081</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3642386993310687</v>
+        <v>-0.3596071710745518</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.09568839519275713</v>
+        <v>-0.09455180489222281</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1183451358590371</v>
+        <v>-0.1334077478296405</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3893888924452069</v>
+        <v>-0.3935152056890931</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.08661244561318975</v>
+        <v>-0.0698213246212137</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4424577059788981</v>
+        <v>0.4510301077495322</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.0959996269857509</v>
+        <v>-0.1010917095626882</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4085638889748802</v>
+        <v>0.4280118549447631</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2890682378197164</v>
+        <v>0.3062578265926541</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.02801332079256193</v>
+        <v>0.008480329509366774</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3350725563672957</v>
+        <v>0.3284674659585585</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.260769236195636</v>
+        <v>0.2570544713510506</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.09393004457203741</v>
+        <v>-0.1012220957261363</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2659077194695293</v>
+        <v>0.2713378008607805</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>1.432501151726029</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>4.577255793165451</v>
+        <v>4.577255793165445</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>4.539120319192929</v>
@@ -2376,7 +2376,7 @@
         <v>2.31113824761065</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>4.527968514509811</v>
+        <v>4.527968514509809</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.298563550338757</v>
+        <v>1.370748874796823</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.04520759448077152</v>
+        <v>-0.001038307285822596</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3.158952383124215</v>
+        <v>3.013543053369837</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.734067556078144</v>
+        <v>2.559005441067073</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.240724440680478</v>
+        <v>1.163472067881485</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.654553886944555</v>
+        <v>2.679763048753291</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.480290386325827</v>
+        <v>2.568800356026741</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.123178262466168</v>
+        <v>1.147597053400478</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.377992086614249</v>
+        <v>3.296423788582751</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.589483463392089</v>
+        <v>4.252033678890869</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.880439138748419</v>
+        <v>2.71797167514588</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6.219878075873453</v>
+        <v>6.042993123968861</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.515797794292186</v>
+        <v>6.351285710606258</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.885440220556901</v>
+        <v>4.875078660117615</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>6.138716462890463</v>
+        <v>6.179164516565421</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.921512337162006</v>
+        <v>5.03244144115583</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.522529759956926</v>
+        <v>3.516458996867702</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>5.672135739036706</v>
+        <v>5.646887019802486</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1583459769145086</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.5059612268255935</v>
+        <v>0.5059612268255929</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.2778056588334943</v>
@@ -2481,7 +2481,7 @@
         <v>0.181277673565847</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3551581560031468</v>
+        <v>0.3551581560031465</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1321063499317429</v>
+        <v>0.1368898742608085</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.001769762652516745</v>
+        <v>-0.00325898643605706</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3226525077794412</v>
+        <v>0.313848512525878</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1581256258926594</v>
+        <v>0.1510773848745415</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.07318052425151643</v>
+        <v>0.06688011093801362</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1525761493434209</v>
+        <v>0.1538504734362491</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1869863638686634</v>
+        <v>0.1925119948409242</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.08245589237367171</v>
+        <v>0.08587799296129782</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2500797885093081</v>
+        <v>0.244851017617582</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.5589044816303463</v>
+        <v>0.4977652752547382</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3574697548471603</v>
+        <v>0.3239161893156578</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7497653457567955</v>
+        <v>0.7116276469722552</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4142930705614236</v>
+        <v>0.4150155942082365</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3163766365427613</v>
+        <v>0.3141891671263219</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4082985330093878</v>
+        <v>0.4005734000930192</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4046125580960713</v>
+        <v>0.4142407936385257</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2862185249708309</v>
+        <v>0.2891754327408091</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4626344465479046</v>
+        <v>0.4629170530699095</v>
       </c>
     </row>
     <row r="58">
